--- a/AAII_Financials/Quarterly/PMOIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMOIY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>PMOIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>713400</v>
+      </c>
+      <c r="E8" s="3">
         <v>871300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>772500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>625000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>497000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>546100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>569900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>367100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>490200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>577000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>744700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>159400</v>
+      </c>
+      <c r="E9" s="3">
         <v>183400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>268400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>231600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>236600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>218800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>405000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>348000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>362200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>298800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>463000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E10" s="3">
         <v>687900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>504100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>393400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>260400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>327300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>164900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>19100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>128000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>278200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>281700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,43 +855,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E12" s="3">
         <v>8700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>54100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>57500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,8 +929,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,55 +946,58 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>244900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1104200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>638700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>381200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>640400</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>411400</v>
+      </c>
+      <c r="E15" s="3">
         <v>346500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>172800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>185600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>242400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>180500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>384200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>148200</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
@@ -982,8 +1005,11 @@
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>585900</v>
+      </c>
+      <c r="E17" s="3">
         <v>543800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>427000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>439500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>604600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>404700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>925800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>181300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1031300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>739900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1062400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>127500</v>
+      </c>
+      <c r="E18" s="3">
         <v>327500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>345500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>185500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-107600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>141400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-355900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>185800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-541100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-162900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-317700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,183 +1112,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-66600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-44500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-104000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-152000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-64500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-76400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-51500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-55100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>527200</v>
+      </c>
+      <c r="E21" s="3">
         <v>607400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>509000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>267100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>227700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>257400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>307800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>282500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>192800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>371400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>484700</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>133200</v>
+      </c>
+      <c r="E22" s="3">
         <v>141000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>118100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>106200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>103100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>80500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>80900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>35000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="E23" s="3">
         <v>119900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>182900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-24700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-362700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-513200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>99300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-614900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-214700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-412900</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E24" s="3">
         <v>7500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>167900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-114800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-55900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-40200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-459700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-62900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>80600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>160500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E26" s="3">
         <v>112400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>90100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-306800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-53500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>162200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-695500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-375200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-398700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>42600</v>
+      </c>
+      <c r="E27" s="3">
         <v>112400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>90100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-306800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-53500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>162200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-695500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-375200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-398700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,43 +1452,49 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E29" s="3">
         <v>8200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>20000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>8300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>12300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>4100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>9000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>4900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-33100</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E32" s="3">
         <v>66600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>44500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>104000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>152000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>64500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>76400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>51500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>55100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>65700</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E33" s="3">
         <v>120600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>98400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-294500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>40700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-44500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>167100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-728600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-375200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-383000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E35" s="3">
         <v>120600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>98400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-294500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>40700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-44500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>167100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-728600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-375200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-383000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,43 +1795,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>198100</v>
+      </c>
+      <c r="E41" s="3">
         <v>253500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>244600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>180000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>365400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>307500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>255900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>207700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>401300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>372400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>291800</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1779,253 +1869,277 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>378900</v>
+      </c>
+      <c r="E43" s="3">
         <v>393100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>282300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>307000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>340600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>307900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>315100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>366900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>274400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>385500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>468900</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E44" s="3">
         <v>16100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>18500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>13500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>19500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>22300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>20800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E45" s="3">
         <v>39200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>182600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>79100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>111100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>64000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>81100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>118300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>96500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>330100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>648600</v>
+      </c>
+      <c r="E46" s="3">
         <v>701900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>722000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>584600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>830600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>698900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>628200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>678600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>814800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>884200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E47" s="3">
         <v>227200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>159800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>165100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>160800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>161400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>149600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>153000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>16800</v>
       </c>
       <c r="L47" s="3">
         <v>16800</v>
       </c>
       <c r="M47" s="3">
+        <v>16800</v>
+      </c>
+      <c r="N47" s="3">
         <v>501700</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2481800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2762900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2245600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2177500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2381000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2678600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2726200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3320400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2611700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2946900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2430000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1174800</v>
+      </c>
+      <c r="E49" s="3">
         <v>1111400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1053400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1322100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1302700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1270500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1252200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1169800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>990500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1151100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1066500</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1556100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1483900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1434100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1619900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1461500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1349600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1304000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>936000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>872100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>946100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>972500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6092400</v>
+      </c>
+      <c r="E54" s="3">
         <v>6287300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5614900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5869200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6136600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6159000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6060200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6257800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5305900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5945100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6087600</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>301900</v>
+      </c>
+      <c r="E57" s="3">
         <v>320400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>375600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>310700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>525200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>383400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>399400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>583400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>65200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>469200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>544500</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>149700</v>
+      </c>
+      <c r="E58" s="3">
         <v>161600</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>332800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>273000</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>245200</v>
+      </c>
+      <c r="E59" s="3">
         <v>95700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>120300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>344000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>298400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>146700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>153800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>254600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>529000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>148200</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>696800</v>
+      </c>
+      <c r="E60" s="3">
         <v>577700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>495900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>654700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>823600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>862900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>826200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>838000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>594200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>626000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>992700</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2752600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3097900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2552000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2802300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2972600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2700900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2730500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2818900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2615100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2441600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2086200</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1511500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1501600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1541000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1648200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1723500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1726100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1694400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1745500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1361800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1444400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1136500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4960900</v>
+      </c>
+      <c r="E66" s="3">
         <v>5177200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4588900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5105200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5519700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5289900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5251100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5402400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4571100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4512000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4215400</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>505800</v>
+      </c>
+      <c r="E72" s="3">
         <v>459800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>332000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>153600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>258500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>487000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>427000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>473300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>352700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1051000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1524700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1131500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1110100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1026000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>764000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>616900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>869100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>809100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>855400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>734800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1433100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1872200</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E81" s="3">
         <v>120600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>98400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-294500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>40700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-44500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>167100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-728600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-375200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-383000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,43 +3232,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>411400</v>
+      </c>
+      <c r="E83" s="3">
         <v>346500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>208000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>185600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>487300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>180500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>739700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>156800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>789000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>561400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>868100</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>564100</v>
+      </c>
+      <c r="E89" s="3">
         <v>544600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>498200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>224600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>204000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>292000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>322700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>108700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>296500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>513000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>424900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-138100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-103300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-115500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-164300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-139500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-136100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>309500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-318300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-552500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-439700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-689200</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-132500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-129700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-196400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-113900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-375100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-484200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-415600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-434900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-772500</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3484,8 +3718,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-481900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-402400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-314100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-212600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-139500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-124600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>107900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>174700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>163000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>387700</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-19000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="E102" s="3">
         <v>8900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>64600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-185400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>57900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>48200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-193600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>28900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>80600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PMOIY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PMOIY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>PMOIY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>530600</v>
+      </c>
+      <c r="E8" s="3">
         <v>713400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>871300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>772500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>625000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>497000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>546100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>569900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>367100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>490200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>577000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>744700</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E9" s="3">
         <v>159400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>183400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>268400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>231600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>236600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>218800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>405000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>348000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>362200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>298800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>463000</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>355600</v>
+      </c>
+      <c r="E10" s="3">
         <v>554000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>687900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>504100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>393400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>260400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>327300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>164900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>19100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>128000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>278200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>281700</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,46 +869,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>242100</v>
+      </c>
+      <c r="E12" s="3">
         <v>12600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>7400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>16000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>54100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>14800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>57500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>51500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21700</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,16 +949,19 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>41500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -949,58 +969,61 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>244900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>1104200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>638700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>381200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>640400</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>411400</v>
+        <v>230600</v>
       </c>
       <c r="E15" s="3">
+        <v>369900</v>
+      </c>
+      <c r="F15" s="3">
         <v>346500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>172800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>185600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>242400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>180500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>384200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>148200</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>729900</v>
+      </c>
+      <c r="E17" s="3">
         <v>585900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>543800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>427000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>439500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>604600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>404700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>925800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>181300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1031300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>739900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1062400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-199300</v>
+      </c>
+      <c r="E18" s="3">
         <v>127500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>327500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>345500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>185500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-107600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>141400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-355900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>185800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-541100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-162900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-317700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,198 +1146,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-66600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-44500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-104000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-152000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-64500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-76400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-51500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-55100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-65700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>527200</v>
+        <v>-5700</v>
       </c>
       <c r="E21" s="3">
+        <v>485700</v>
+      </c>
+      <c r="F21" s="3">
         <v>607400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>509000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>267100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>227700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>257400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>307800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>282500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>192800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>371400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>484700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E22" s="3">
         <v>133200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>141000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>118100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>106200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>103100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>80500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>80900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-334800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-17400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>119900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>182900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-24700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-362700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-513200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>99300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-614900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-214700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-412900</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>336700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-60000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>167900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-114800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-55900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-40200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-459700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-62900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>80600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>160500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-14200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-671500</v>
+      </c>
+      <c r="E26" s="3">
         <v>42600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>112400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>90100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-306800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-53500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>162200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-695500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-375200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-398700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-671500</v>
+      </c>
+      <c r="E27" s="3">
         <v>42600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>112400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>15000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>90100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-306800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-53500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>162200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-695500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-375200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-398700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,46 +1513,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>1100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>8200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>20000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>8300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>12300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>4100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>9000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>4900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-33100</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>15700</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>116600</v>
+      </c>
+      <c r="E32" s="3">
         <v>11700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>66600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>44500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>104000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>152000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>64500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>76400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>51500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>55100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>65700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-671500</v>
+      </c>
+      <c r="E33" s="3">
         <v>43700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>120600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>98400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-294500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>40700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-44500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>167100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-728600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-375200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-383000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-671500</v>
+      </c>
+      <c r="E35" s="3">
         <v>43700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>120600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>98400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-294500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>40700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-44500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>167100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-728600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-375200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-383000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,46 +1882,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>139700</v>
+      </c>
+      <c r="E41" s="3">
         <v>198100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>253500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>244600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>180000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>365400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>307500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>255900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>207700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>401300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>372400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>291800</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1872,274 +1962,298 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>277400</v>
+      </c>
+      <c r="E43" s="3">
         <v>378900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>393100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>282300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>307000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>340600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>307900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>315100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>366900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>274400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>385500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>468900</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E44" s="3">
         <v>16300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>18500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>13500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>19500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>22300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>20800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>130900</v>
+      </c>
+      <c r="E45" s="3">
         <v>55300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>182600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>79100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>111100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>64000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>81100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>96500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>330100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>561300</v>
+      </c>
+      <c r="E46" s="3">
         <v>648600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>701900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>722000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>584600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>830600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>698900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>628200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>678600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>814800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>884200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1116900</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>230400</v>
+      </c>
+      <c r="E47" s="3">
         <v>231100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>227200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>159800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>165100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>160800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>161400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>149600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>153000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>16800</v>
       </c>
       <c r="M47" s="3">
         <v>16800</v>
       </c>
       <c r="N47" s="3">
+        <v>16800</v>
+      </c>
+      <c r="O47" s="3">
         <v>501700</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2306900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2481800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2762900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2245600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2177500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2381000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2678600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2726200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3320400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2611700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2946900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2430000</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>983600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1174800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1111400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1053400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1322100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1302700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1270500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1252200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1169800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>990500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1151100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1066500</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1199100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1556100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1483900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1434100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1619900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1461500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1349600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1304000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>936000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>872100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>946100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>972500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5281300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6092400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6287300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5614900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5869200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6136600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6159000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6060200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6257800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5305900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5945100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6087600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>394200</v>
+      </c>
+      <c r="E57" s="3">
         <v>301900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>320400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>375600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>310700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>525200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>383400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>399400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>583400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>65200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>469200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>544500</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2194600</v>
+      </c>
+      <c r="E58" s="3">
         <v>149700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>161600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>332800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>273000</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>260300</v>
+      </c>
+      <c r="E59" s="3">
         <v>245200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>95700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>120300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>344000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>298400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>146700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>153800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>254600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>529000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>148200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2849100</v>
+      </c>
+      <c r="E60" s="3">
         <v>696800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>577700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>495900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>654700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>823600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>862900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>826200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>838000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>594200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>626000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>992700</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>607300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2752600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3097900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2552000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2802300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2972600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2700900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2730500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2818900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2615100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2441600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2086200</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1334700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1511500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1501600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1541000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1648200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1723500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1726100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1694400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1745500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1361800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1444400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1136500</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4791100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4960900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5177200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4588900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5105200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5519700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5289900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5251100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5402400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4571100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4512000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4215400</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>505800</v>
+        <v>-197200</v>
       </c>
       <c r="E72" s="3">
+        <v>475600</v>
+      </c>
+      <c r="F72" s="3">
         <v>459800</v>
       </c>
-      <c r="F72" s="3">
-        <v>332000</v>
-      </c>
       <c r="G72" s="3">
+        <v>380100</v>
+      </c>
+      <c r="H72" s="3">
         <v>153600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>258500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>487000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>427000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>473300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>352700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1051000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1524700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>490200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1131500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1110100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1026000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>764000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>616900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>869100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>809100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>855400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>734800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1433100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1872200</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-671500</v>
+      </c>
+      <c r="E81" s="3">
         <v>43700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>120600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>98400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-294500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>40700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-44500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>167100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-728600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-375200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-383000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,46 +3431,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>411400</v>
+        <v>310200</v>
       </c>
       <c r="E83" s="3">
+        <v>369900</v>
+      </c>
+      <c r="F83" s="3">
         <v>346500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>208000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>185600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>487300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>180500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>739700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>156800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>789000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>561400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>868100</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>323700</v>
+      </c>
+      <c r="E89" s="3">
         <v>564100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>544600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>498200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>224600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>204000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>292000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>322700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>108700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>296500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>513000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>424900</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-138100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-103300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-115500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-164300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-139500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-136100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>309500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-318300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-552500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-439700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-689200</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-132500</v>
+        <v>-155300</v>
       </c>
       <c r="E94" s="3">
-        <v>-129700</v>
+        <v>-146300</v>
       </c>
       <c r="F94" s="3">
+        <v>-115900</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-196400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-113900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-375100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-484200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-415600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-434900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-772500</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3721,8 +3955,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-221100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-481900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-402400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-314100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-212600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-139500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-124600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>107900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>174700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>163000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>387700</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-19000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-55400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>64600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-185400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>57900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>51600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>48200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-193600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>28900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>80600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>36800</v>
       </c>
     </row>
